--- a/CoffeeDataOrders.xlsx
+++ b/CoffeeDataOrders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Synt4x\Desktop\Data Analyst Projects\CoffeeDataAnalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D202B90-456A-4016-859A-B3444CB5A5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EE25CF-C612-4428-9B46-9C167485B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{503685E1-7BF8-482B-A2F5-6629F8CC182B}"/>
   </bookViews>
